--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-11/Sample-11.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-11/Sample-11.xlsx
@@ -115,82 +115,48 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="2" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="4" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="5" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="6" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="7" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="8" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="9" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="10" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="do3qdvty" xfId="1"/>
-    <cellStyle name="do3qdvty_Alternate" xfId="2"/>
+    <cellStyle name="rin5gelr" xfId="1"/>
+    <cellStyle name="rin5gelr_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="jzxdqzjj" xfId="5"/>
-    <cellStyle name="jzxdqzjj_Alternate" xfId="6"/>
-    <cellStyle name="e3d4roe5" xfId="7"/>
-    <cellStyle name="e3d4roe5_Alternate" xfId="8"/>
-    <cellStyle name="5fzj1ip4" xfId="9"/>
-    <cellStyle name="5fzj1ip4_Alternate" xfId="10"/>
+    <cellStyle name="3jukcwj4" xfId="5"/>
+    <cellStyle name="3jukcwj4_Alternate" xfId="6"/>
+    <cellStyle name="hzz10hmh" xfId="7"/>
+    <cellStyle name="hzz10hmh_Alternate" xfId="8"/>
+    <cellStyle name="dzpsvzpd" xfId="9"/>
+    <cellStyle name="dzpsvzpd_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -4534,67 +4500,67 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4618,22 +4584,22 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4652,22 +4618,22 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4691,10 +4657,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-11/Sample-11.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCoreAsync/Output/Sample-11/Sample-11.xlsx
@@ -147,16 +147,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="rin5gelr" xfId="1"/>
-    <cellStyle name="rin5gelr_Alternate" xfId="2"/>
+    <cellStyle name="gpukex3r" xfId="1"/>
+    <cellStyle name="gpukex3r_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="3jukcwj4" xfId="5"/>
-    <cellStyle name="3jukcwj4_Alternate" xfId="6"/>
-    <cellStyle name="hzz10hmh" xfId="7"/>
-    <cellStyle name="hzz10hmh_Alternate" xfId="8"/>
-    <cellStyle name="dzpsvzpd" xfId="9"/>
-    <cellStyle name="dzpsvzpd_Alternate" xfId="10"/>
+    <cellStyle name="z1lpoch0" xfId="5"/>
+    <cellStyle name="z1lpoch0_Alternate" xfId="6"/>
+    <cellStyle name="ehdc4il0" xfId="7"/>
+    <cellStyle name="ehdc4il0_Alternate" xfId="8"/>
+    <cellStyle name="gewcx3g4" xfId="9"/>
+    <cellStyle name="gewcx3g4_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
